--- a/biology/Virologie/Papovaviricetes/Papovaviricetes.xlsx
+++ b/biology/Virologie/Papovaviricetes/Papovaviricetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Papovaviricetes (ou papovavirus) sont une classe de virus à ADN bicaténaire circulaire, non enveloppés, avec un petit génome ayant un fort pouvoir oncogène, autrefois considérées comme une famille : la famille des Papovaviridae.
 Il existe deux genres chez les Papovaviridae :
@@ -518,7 +530,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de petites particules hexagonales (parmi les plus petits virus à ADN), avec une capside icosaédrique de 72 capsomères formées à partir de trois protéines de structure :
 VP1 (protéine majeure)
@@ -552,7 +566,9 @@
           <t>Cycle de multiplication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adsorption : la protéine de capside VP1 s’associe au récepteur cellulaire
 Pénétration : endocytose (rôle de VP2 et VP3)
